--- a/biology/Histoire de la zoologie et de la botanique/Christian_Ludwig_Nitzsch/Christian_Ludwig_Nitzsch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Christian_Ludwig_Nitzsch/Christian_Ludwig_Nitzsch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Ludwig Nitzsch, est un zoologiste allemand, né le 3 septembre 1782 à Beucha près de Grimma et mort le 16 août 1837 à Halle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du pasteur Karl Ludwig Nitzsch (de) (1751-1831) et de Luise née Wernsdorf. Christian Nitzsch commence ses études à Borna et à Zeitz. Pour suivre l’exemple de son arrière-grand-père Gottlieb Wernsdorf l'Ancien (1668-1729), il étudie à l’université de Wittenberger (aujourd’hui Université Martin-Luther de Halle-Wittenberg). Diplômé en 1804, il poursuit ses études en médecine et est fait docteur en 1808. Il s’installe à Halle où il devient professeur de zoologie à l'université de Halle et devient secrétaire du musée zoologie.
 Nitzsch fait paraître en 1820, un travail sur les glandes nasales des oiseaux sur laquelle il base sa classification. Même si son système n'est guère généralisable, il permet de distinguer certains groupes entre eux. Il publie en 1829, un travail sur le système circulatoire des oiseaux et aboutit à un système de classement similaire à celui de Ferdinand Joseph L'Herminier (1802-1866). Il s’intéresse également aux parasites et aux infusoires.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De respiratione animalium 1808
 Die Familien der Thierinsekten. Germar’s Magazin für Entomologie, Band 3 1818
